--- a/static/Shop_table.xlsx
+++ b/static/Shop_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PCDatas\Phoenix 2 wiki\p2myth\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563D435B-7C3F-4CED-8FD3-416FDCCE1A47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3456B545-1713-4092-A9ED-989DF2F3C1B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{8402E4AA-27EC-4540-9BC0-F179FF7A2443}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4368" uniqueCount="665">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4368" uniqueCount="662">
   <si>
     <t>Day 00, 0000</t>
   </si>
@@ -2033,25 +2033,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Sequence No</t>
-  </si>
-  <si>
     <t>Theme</t>
-  </si>
-  <si>
-    <t>Ship #1</t>
-  </si>
-  <si>
-    <t>Ship #2</t>
-  </si>
-  <si>
-    <t>Ship #3</t>
-  </si>
-  <si>
-    <t>Ship #4</t>
-  </si>
-  <si>
-    <t>Ship #5</t>
   </si>
   <si>
     <t>Teleporters</t>
@@ -2151,6 +2133,18 @@
   </si>
   <si>
     <t>Ship3S</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Num</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ship4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ship5</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2568,7 +2562,7 @@
   <dimension ref="A1:G401"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2581,25 +2575,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -2961,7 +2955,7 @@
         <v>3</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>64</v>
@@ -3116,7 +3110,7 @@
         <v>62</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>11</v>
@@ -3677,7 +3671,7 @@
         <v>88</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>134</v>
@@ -4197,7 +4191,7 @@
         <v>88</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>21</v>
@@ -4462,7 +4456,7 @@
         <v>130</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
@@ -5390,7 +5384,7 @@
         <v>222</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>79</v>
@@ -5445,7 +5439,7 @@
         <v>16</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>41</v>
@@ -6023,7 +6017,7 @@
         <v>62</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="G150" s="1" t="s">
         <v>64</v>
@@ -6739,7 +6733,7 @@
         <v>88</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.3">
@@ -6842,7 +6836,7 @@
         <v>37</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="D186" s="1" t="s">
         <v>21</v>
@@ -7538,7 +7532,7 @@
         <v>21</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="F216" s="1" t="s">
         <v>79</v>
@@ -7716,7 +7710,7 @@
         <v>62</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="D224" s="1" t="s">
         <v>11</v>
@@ -8507,7 +8501,7 @@
         <v>37</v>
       </c>
       <c r="F258" s="1" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="G258" s="1" t="s">
         <v>41</v>
@@ -8797,7 +8791,7 @@
         <v>88</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="D271" s="1" t="s">
         <v>21</v>
@@ -9085,7 +9079,7 @@
         <v>62</v>
       </c>
       <c r="G283" s="1" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.3">
@@ -9815,7 +9809,7 @@
         <v>16</v>
       </c>
       <c r="E315" s="1" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="F315" s="1" t="s">
         <v>134</v>
@@ -9990,7 +9984,7 @@
         <v>422</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="C323" s="1" t="s">
         <v>79</v>
@@ -10600,7 +10594,7 @@
         <v>130</v>
       </c>
       <c r="F349" s="1" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="G349" s="1" t="s">
         <v>79</v>
@@ -11442,7 +11436,7 @@
         <v>37</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="D386" s="1" t="s">
         <v>21</v>
@@ -11569,7 +11563,7 @@
         <v>37</v>
       </c>
       <c r="G391" s="1" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.3">
@@ -12945,8 +12939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{779BEEFC-0607-4B48-A626-6AE397B38C06}">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="G75" sqref="G75"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -12959,25 +12953,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>628</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>629</v>
+        <v>652</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>630</v>
+        <v>653</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>631</v>
+        <v>654</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>632</v>
+        <v>660</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>633</v>
+        <v>661</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -12985,7 +12979,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>60</v>
@@ -13008,7 +13002,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>96</v>
@@ -13031,7 +13025,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>89</v>
@@ -13054,7 +13048,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>26</v>
@@ -13077,7 +13071,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>83</v>
@@ -13100,7 +13094,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>123</v>
@@ -13123,7 +13117,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>77</v>
@@ -13143,7 +13137,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>61</v>
@@ -13160,7 +13154,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>48</v>
@@ -13180,7 +13174,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>116</v>
@@ -13189,7 +13183,7 @@
         <v>69</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>14</v>
@@ -13203,7 +13197,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>22</v>
@@ -13226,7 +13220,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>543</v>
@@ -13246,7 +13240,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>77</v>
@@ -13269,7 +13263,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>31</v>
@@ -13281,7 +13275,7 @@
         <v>57</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>75</v>
@@ -13292,7 +13286,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>26</v>
@@ -13315,7 +13309,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>91</v>
@@ -13338,7 +13332,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>104</v>
@@ -13361,7 +13355,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>52</v>
@@ -13381,7 +13375,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>12</v>
@@ -13404,7 +13398,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>34</v>
@@ -13424,7 +13418,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>2</v>
@@ -13444,7 +13438,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>22</v>
@@ -13464,7 +13458,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>45</v>
@@ -13487,7 +13481,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>41</v>
@@ -13510,7 +13504,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>4</v>
@@ -13533,7 +13527,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>122</v>
@@ -13556,7 +13550,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>60</v>
@@ -13579,7 +13573,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>123</v>
@@ -13588,7 +13582,7 @@
         <v>103</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>58</v>
@@ -13602,7 +13596,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>91</v>
@@ -13625,7 +13619,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>69</v>
@@ -13648,7 +13642,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>13</v>
@@ -13671,7 +13665,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>2</v>
@@ -13694,7 +13688,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>67</v>
@@ -13717,7 +13711,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>17</v>
@@ -13740,7 +13734,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>123</v>
@@ -13763,7 +13757,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>13</v>
@@ -13786,7 +13780,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>77</v>
@@ -13809,7 +13803,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>61</v>
@@ -13826,7 +13820,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>65</v>
@@ -13849,7 +13843,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>96</v>
@@ -13872,7 +13866,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>122</v>
@@ -13895,7 +13889,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>22</v>
@@ -13918,7 +13912,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>91</v>
@@ -13941,7 +13935,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>96</v>
@@ -13964,7 +13958,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>60</v>
@@ -13987,7 +13981,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>77</v>
@@ -14007,7 +14001,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>123</v>
@@ -14016,7 +14010,7 @@
         <v>103</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>58</v>
@@ -14030,7 +14024,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>122</v>
@@ -14053,7 +14047,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>2</v>
@@ -14073,7 +14067,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>83</v>
@@ -14096,7 +14090,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>91</v>
@@ -14116,7 +14110,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>12</v>
@@ -14139,7 +14133,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>26</v>
@@ -14162,7 +14156,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>123</v>
@@ -14171,7 +14165,7 @@
         <v>103</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>58</v>
@@ -14185,7 +14179,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>104</v>
@@ -14208,7 +14202,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>71</v>
@@ -14228,7 +14222,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>22</v>
@@ -14251,7 +14245,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>104</v>
@@ -14274,7 +14268,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>60</v>
@@ -14297,7 +14291,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>45</v>
@@ -14320,7 +14314,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>34</v>
@@ -14343,7 +14337,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>31</v>
@@ -14366,7 +14360,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>84</v>
@@ -14389,7 +14383,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>54</v>
@@ -14412,7 +14406,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>26</v>
@@ -14432,7 +14426,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>46</v>
@@ -14444,7 +14438,7 @@
         <v>130</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>97</v>
@@ -14455,7 +14449,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>22</v>
@@ -14478,7 +14472,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>104</v>
@@ -14501,7 +14495,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>96</v>
@@ -14521,7 +14515,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>543</v>
@@ -14544,7 +14538,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>81</v>
@@ -14567,7 +14561,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>37</v>
@@ -14587,7 +14581,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>132</v>
@@ -14607,7 +14601,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>39</v>
@@ -14630,7 +14624,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>122</v>
@@ -14650,7 +14644,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>61</v>
@@ -14673,7 +14667,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>83</v>
@@ -14693,7 +14687,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>111</v>
@@ -14705,7 +14699,7 @@
         <v>45</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
@@ -14713,7 +14707,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>71</v>
@@ -14733,7 +14727,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>26</v>
@@ -14756,7 +14750,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>91</v>
@@ -14776,7 +14770,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>44</v>
@@ -14796,7 +14790,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>12</v>
@@ -14816,7 +14810,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>2</v>
@@ -14836,7 +14830,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>65</v>
@@ -14859,7 +14853,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>17</v>
@@ -14882,7 +14876,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>34</v>
@@ -14905,7 +14899,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>83</v>
@@ -14925,7 +14919,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>46</v>
@@ -14934,7 +14928,7 @@
         <v>101</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>58</v>
@@ -14948,7 +14942,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>104</v>
@@ -14971,7 +14965,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>52</v>
@@ -14991,7 +14985,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>83</v>
@@ -15014,7 +15008,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>46</v>
@@ -15037,7 +15031,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>122</v>
@@ -15060,7 +15054,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>2</v>
@@ -15083,7 +15077,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>44</v>
@@ -15106,7 +15100,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>45</v>
@@ -15129,7 +15123,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>30</v>
@@ -15152,7 +15146,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>60</v>
@@ -15175,7 +15169,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>37</v>
@@ -15203,8 +15197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7620DDBA-3AAB-4CCB-9386-CEB20CBCC974}">
   <dimension ref="A1:G201"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C83" sqref="C83"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="H72" sqref="H72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -15216,25 +15210,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>628</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>629</v>
+        <v>652</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>630</v>
+        <v>653</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>631</v>
+        <v>654</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>632</v>
+        <v>660</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>633</v>
+        <v>661</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -15242,7 +15236,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>34</v>
@@ -15265,7 +15259,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>80</v>
@@ -15276,7 +15270,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>119</v>
@@ -15287,7 +15281,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>31</v>
@@ -15310,7 +15304,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>84</v>
@@ -15333,7 +15327,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>83</v>
@@ -15344,7 +15338,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>6</v>
@@ -15355,7 +15349,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>54</v>
@@ -15378,7 +15372,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>26</v>
@@ -15398,7 +15392,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>19</v>
@@ -15409,7 +15403,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>44</v>
@@ -15420,7 +15414,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>46</v>
@@ -15432,7 +15426,7 @@
         <v>130</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>97</v>
@@ -15443,7 +15437,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>22</v>
@@ -15466,7 +15460,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>89</v>
@@ -15477,7 +15471,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>124</v>
@@ -15488,7 +15482,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>104</v>
@@ -15511,7 +15505,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>96</v>
@@ -15531,7 +15525,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>22</v>
@@ -15542,7 +15536,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>17</v>
@@ -15553,7 +15547,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>543</v>
@@ -15576,7 +15570,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>81</v>
@@ -15599,7 +15593,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>95</v>
@@ -15610,7 +15604,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>4</v>
@@ -15621,7 +15615,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>37</v>
@@ -15641,7 +15635,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>132</v>
@@ -15661,7 +15655,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>38</v>
@@ -15672,7 +15666,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>33</v>
@@ -15683,7 +15677,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>39</v>
@@ -15706,7 +15700,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>122</v>
@@ -15726,7 +15720,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>111</v>
@@ -15737,7 +15731,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>120</v>
@@ -15748,7 +15742,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>61</v>
@@ -15771,7 +15765,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>83</v>
@@ -15791,7 +15785,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>26</v>
@@ -15802,7 +15796,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>116</v>
@@ -15813,7 +15807,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>111</v>
@@ -15825,7 +15819,7 @@
         <v>45</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -15833,7 +15827,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>71</v>
@@ -15853,10 +15847,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -15864,7 +15858,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>110</v>
@@ -15875,7 +15869,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>26</v>
@@ -15898,7 +15892,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>91</v>
@@ -15918,7 +15912,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>101</v>
@@ -15929,7 +15923,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>39</v>
@@ -15940,7 +15934,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>44</v>
@@ -15960,7 +15954,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>89</v>
@@ -15983,7 +15977,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>49</v>
@@ -15994,7 +15988,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>105</v>
@@ -16005,7 +15999,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>2</v>
@@ -16025,7 +16019,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>65</v>
@@ -16048,7 +16042,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>9</v>
@@ -16059,7 +16053,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>91</v>
@@ -16070,7 +16064,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>17</v>
@@ -16093,7 +16087,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>34</v>
@@ -16116,7 +16110,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>60</v>
@@ -16127,7 +16121,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>92</v>
@@ -16138,7 +16132,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>83</v>
@@ -16158,7 +16152,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>46</v>
@@ -16167,7 +16161,7 @@
         <v>101</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>58</v>
@@ -16181,7 +16175,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>115</v>
@@ -16192,7 +16186,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>23</v>
@@ -16203,7 +16197,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>104</v>
@@ -16226,7 +16220,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>52</v>
@@ -16246,7 +16240,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>62</v>
@@ -16257,7 +16251,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>114</v>
@@ -16268,7 +16262,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>83</v>
@@ -16291,7 +16285,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>46</v>
@@ -16314,7 +16308,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>42</v>
@@ -16325,7 +16319,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>107</v>
@@ -16336,7 +16330,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>122</v>
@@ -16359,7 +16353,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>2</v>
@@ -16382,7 +16376,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>130</v>
@@ -16393,7 +16387,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>52</v>
@@ -16404,7 +16398,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>44</v>
@@ -16427,7 +16421,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>45</v>
@@ -16450,7 +16444,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>77</v>
@@ -16461,7 +16455,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>73</v>
@@ -16472,7 +16466,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>30</v>
@@ -16495,7 +16489,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>60</v>
@@ -16518,7 +16512,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>99</v>
@@ -16529,7 +16523,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>131</v>
@@ -16540,7 +16534,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>37</v>
@@ -16563,7 +16557,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>60</v>
@@ -16586,7 +16580,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>75</v>
@@ -16597,7 +16591,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>8</v>
@@ -16608,7 +16602,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>96</v>
@@ -16631,7 +16625,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>89</v>
@@ -16654,7 +16648,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>79</v>
@@ -16665,7 +16659,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>543</v>
@@ -16676,7 +16670,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>26</v>
@@ -16699,7 +16693,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>83</v>
@@ -16722,7 +16716,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>68</v>
@@ -16733,7 +16727,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>71</v>
@@ -16744,7 +16738,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>123</v>
@@ -16767,7 +16761,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>77</v>
@@ -16787,7 +16781,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>529</v>
@@ -16798,7 +16792,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>35</v>
@@ -16809,7 +16803,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>61</v>
@@ -16826,7 +16820,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>48</v>
@@ -16846,7 +16840,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>118</v>
@@ -16857,7 +16851,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>27</v>
@@ -16868,7 +16862,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>116</v>
@@ -16877,7 +16871,7 @@
         <v>69</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>14</v>
@@ -16891,7 +16885,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>22</v>
@@ -16914,7 +16908,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>64</v>
@@ -16925,7 +16919,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>31</v>
@@ -16936,7 +16930,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>543</v>
@@ -16956,7 +16950,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>77</v>
@@ -16979,7 +16973,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>96</v>
@@ -16990,7 +16984,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>65</v>
@@ -17001,7 +16995,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>31</v>
@@ -17013,7 +17007,7 @@
         <v>57</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="G109" s="1" t="s">
         <v>75</v>
@@ -17024,7 +17018,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>26</v>
@@ -17047,7 +17041,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>81</v>
@@ -17058,7 +17052,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>108</v>
@@ -17069,7 +17063,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>91</v>
@@ -17092,7 +17086,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>104</v>
@@ -17115,7 +17109,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>29</v>
@@ -17126,7 +17120,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>88</v>
@@ -17137,7 +17131,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>52</v>
@@ -17157,7 +17151,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>12</v>
@@ -17180,7 +17174,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>58</v>
@@ -17191,7 +17185,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>1</v>
@@ -17202,7 +17196,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>34</v>
@@ -17222,7 +17216,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>2</v>
@@ -17242,7 +17236,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>56</v>
@@ -17253,7 +17247,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>69</v>
@@ -17264,7 +17258,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>22</v>
@@ -17284,7 +17278,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>45</v>
@@ -17307,7 +17301,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>53</v>
@@ -17318,7 +17312,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>13</v>
@@ -17329,7 +17323,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>41</v>
@@ -17352,7 +17346,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>4</v>
@@ -17375,7 +17369,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>112</v>
@@ -17386,7 +17380,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>45</v>
@@ -17397,7 +17391,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>122</v>
@@ -17420,7 +17414,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>60</v>
@@ -17443,7 +17437,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>76</v>
@@ -17454,7 +17448,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>93</v>
@@ -17465,7 +17459,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>123</v>
@@ -17474,7 +17468,7 @@
         <v>103</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>58</v>
@@ -17488,7 +17482,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>91</v>
@@ -17511,7 +17505,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>25</v>
@@ -17522,7 +17516,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>104</v>
@@ -17533,7 +17527,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>69</v>
@@ -17556,7 +17550,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>13</v>
@@ -17579,7 +17573,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>12</v>
@@ -17590,7 +17584,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>34</v>
@@ -17601,7 +17595,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>2</v>
@@ -17624,7 +17618,7 @@
         <v>144</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>67</v>
@@ -17647,7 +17641,7 @@
         <v>145</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>134</v>
@@ -17658,7 +17652,7 @@
         <v>146</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>85</v>
@@ -17669,7 +17663,7 @@
         <v>147</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>17</v>
@@ -17692,7 +17686,7 @@
         <v>148</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>123</v>
@@ -17715,7 +17709,7 @@
         <v>149</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>50</v>
@@ -17726,7 +17720,7 @@
         <v>150</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>97</v>
@@ -17737,7 +17731,7 @@
         <v>151</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>13</v>
@@ -17760,7 +17754,7 @@
         <v>152</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>77</v>
@@ -17783,7 +17777,7 @@
         <v>153</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>87</v>
@@ -17794,7 +17788,7 @@
         <v>154</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>30</v>
@@ -17805,7 +17799,7 @@
         <v>155</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>543</v>
@@ -17825,7 +17819,7 @@
         <v>156</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>77</v>
@@ -17848,7 +17842,7 @@
         <v>157</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>41</v>
@@ -17859,7 +17853,7 @@
         <v>158</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>18</v>
@@ -17870,7 +17864,7 @@
         <v>159</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>60</v>
@@ -17893,7 +17887,7 @@
         <v>160</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>26</v>
@@ -17916,7 +17910,7 @@
         <v>161</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>72</v>
@@ -17927,7 +17921,7 @@
         <v>162</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>100</v>
@@ -17938,7 +17932,7 @@
         <v>163</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>83</v>
@@ -17958,7 +17952,7 @@
         <v>164</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>122</v>
@@ -17978,7 +17972,7 @@
         <v>165</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>14</v>
@@ -17989,7 +17983,7 @@
         <v>166</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>128</v>
@@ -18000,7 +17994,7 @@
         <v>167</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>30</v>
@@ -18023,7 +18017,7 @@
         <v>168</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>54</v>
@@ -18046,7 +18040,7 @@
         <v>169</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>46</v>
@@ -18057,7 +18051,7 @@
         <v>170</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>37</v>
@@ -18068,7 +18062,7 @@
         <v>171</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>91</v>
@@ -18088,7 +18082,7 @@
         <v>172</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>4</v>
@@ -18111,7 +18105,7 @@
         <v>173</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>126</v>
@@ -18122,7 +18116,7 @@
         <v>174</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>67</v>
@@ -18133,7 +18127,7 @@
         <v>175</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>116</v>
@@ -18142,7 +18136,7 @@
         <v>69</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="F177" s="1" t="s">
         <v>14</v>
@@ -18156,7 +18150,7 @@
         <v>176</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>83</v>
@@ -18179,7 +18173,7 @@
         <v>177</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>84</v>
@@ -18190,7 +18184,7 @@
         <v>178</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>54</v>
@@ -18201,7 +18195,7 @@
         <v>179</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>65</v>
@@ -18224,7 +18218,7 @@
         <v>180</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>71</v>
@@ -18244,7 +18238,7 @@
         <v>181</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>2</v>
@@ -18255,7 +18249,7 @@
         <v>182</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>123</v>
@@ -18266,7 +18260,7 @@
         <v>183</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>26</v>
@@ -18289,7 +18283,7 @@
         <v>184</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>31</v>
@@ -18301,7 +18295,7 @@
         <v>57</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="G186" s="1" t="s">
         <v>75</v>
@@ -18312,7 +18306,7 @@
         <v>185</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>127</v>
@@ -18323,7 +18317,7 @@
         <v>186</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>57</v>
@@ -18334,7 +18328,7 @@
         <v>187</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>69</v>
@@ -18357,7 +18351,7 @@
         <v>188</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>45</v>
@@ -18380,7 +18374,7 @@
         <v>189</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>122</v>
@@ -18391,7 +18385,7 @@
         <v>190</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>103</v>
@@ -18402,7 +18396,7 @@
         <v>191</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>89</v>
@@ -18425,7 +18419,7 @@
         <v>192</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>45</v>
@@ -18448,7 +18442,7 @@
         <v>193</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>132</v>
@@ -18459,7 +18453,7 @@
         <v>194</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>61</v>
@@ -18470,7 +18464,7 @@
         <v>195</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>104</v>
@@ -18493,7 +18487,7 @@
         <v>196</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>26</v>
@@ -18516,7 +18510,7 @@
         <v>197</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>48</v>
@@ -18527,7 +18521,7 @@
         <v>198</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>625</v>
@@ -18538,7 +18532,7 @@
         <v>199</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>91</v>

--- a/static/Shop_table.xlsx
+++ b/static/Shop_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PCDatas\Phoenix 2 wiki\p2myth\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3456B545-1713-4092-A9ED-989DF2F3C1B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F563D2-8089-4DEE-A387-3BF187E1B26B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{8402E4AA-27EC-4540-9BC0-F179FF7A2443}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{8402E4AA-27EC-4540-9BC0-F179FF7A2443}"/>
   </bookViews>
   <sheets>
     <sheet name="Shop Cycle" sheetId="1" r:id="rId1"/>
@@ -1912,9 +1912,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Tar'cah</t>
-  </si>
-  <si>
     <t>塔尔查赫</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2145,6 +2142,10 @@
   </si>
   <si>
     <t>Ship5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tar'Cah</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2561,7 +2562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5EB88DF-6919-4504-9EB4-1F9B3D2560B1}">
   <dimension ref="A1:G401"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
@@ -2575,25 +2576,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>658</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>653</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -2702,7 +2703,7 @@
         <v>21</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>22</v>
@@ -2739,7 +2740,7 @@
         <v>28</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>22</v>
@@ -2955,7 +2956,7 @@
         <v>3</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>64</v>
@@ -3110,7 +3111,7 @@
         <v>62</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>11</v>
@@ -3671,7 +3672,7 @@
         <v>88</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>134</v>
@@ -3812,7 +3813,7 @@
         <v>67</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
@@ -4191,7 +4192,7 @@
         <v>88</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>21</v>
@@ -4381,7 +4382,7 @@
         <v>11</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>13</v>
@@ -4418,7 +4419,7 @@
         <v>180</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>112</v>
@@ -4456,7 +4457,7 @@
         <v>130</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
@@ -5048,7 +5049,7 @@
         <v>7</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>62</v>
@@ -5249,7 +5250,7 @@
         <v>22</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>3</v>
@@ -5384,7 +5385,7 @@
         <v>222</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>79</v>
@@ -5439,7 +5440,7 @@
         <v>16</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>41</v>
@@ -5764,7 +5765,7 @@
         <v>19</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="G139" s="1" t="s">
         <v>22</v>
@@ -6017,7 +6018,7 @@
         <v>62</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G150" s="1" t="s">
         <v>64</v>
@@ -6258,7 +6259,7 @@
         <v>260</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>62</v>
@@ -6733,7 +6734,7 @@
         <v>88</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.3">
@@ -6836,7 +6837,7 @@
         <v>37</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D186" s="1" t="s">
         <v>21</v>
@@ -6888,7 +6889,7 @@
         <v>7</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F188" s="1" t="s">
         <v>112</v>
@@ -7339,7 +7340,7 @@
         <v>307</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>22</v>
@@ -7443,7 +7444,7 @@
         <v>22</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="G212" s="1" t="s">
         <v>13</v>
@@ -7532,7 +7533,7 @@
         <v>21</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F216" s="1" t="s">
         <v>79</v>
@@ -7710,7 +7711,7 @@
         <v>62</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D224" s="1" t="s">
         <v>11</v>
@@ -8110,7 +8111,7 @@
         <v>79</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="G241" s="1" t="s">
         <v>62</v>
@@ -8501,7 +8502,7 @@
         <v>37</v>
       </c>
       <c r="F258" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G258" s="1" t="s">
         <v>41</v>
@@ -8791,7 +8792,7 @@
         <v>88</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D271" s="1" t="s">
         <v>21</v>
@@ -8826,7 +8827,7 @@
         <v>19</v>
       </c>
       <c r="G272" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.3">
@@ -9018,7 +9019,7 @@
         <v>380</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C281" s="1" t="s">
         <v>112</v>
@@ -9079,7 +9080,7 @@
         <v>62</v>
       </c>
       <c r="G283" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.3">
@@ -9809,7 +9810,7 @@
         <v>16</v>
       </c>
       <c r="E315" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F315" s="1" t="s">
         <v>134</v>
@@ -9849,7 +9850,7 @@
         <v>22</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D317" s="1" t="s">
         <v>3</v>
@@ -9950,7 +9951,7 @@
         <v>67</v>
       </c>
       <c r="F321" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="G321" s="1" t="s">
         <v>112</v>
@@ -9984,7 +9985,7 @@
         <v>422</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C323" s="1" t="s">
         <v>79</v>
@@ -10505,7 +10506,7 @@
         <v>22</v>
       </c>
       <c r="G345" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.3">
@@ -10594,7 +10595,7 @@
         <v>130</v>
       </c>
       <c r="F349" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G349" s="1" t="s">
         <v>79</v>
@@ -10858,7 +10859,7 @@
         <v>460</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C361" s="1" t="s">
         <v>62</v>
@@ -11172,7 +11173,7 @@
         <v>79</v>
       </c>
       <c r="G374" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.3">
@@ -11436,7 +11437,7 @@
         <v>37</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D386" s="1" t="s">
         <v>21</v>
@@ -11563,7 +11564,7 @@
         <v>37</v>
       </c>
       <c r="G391" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.3">
@@ -11775,7 +11776,7 @@
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A401" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B401" s="1" t="s">
         <v>130</v>
@@ -11808,7 +11809,7 @@
   <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -12670,10 +12671,10 @@
         <v>3</v>
       </c>
       <c r="B78" s="6" t="s">
+        <v>661</v>
+      </c>
+      <c r="C78" s="6" t="s">
         <v>596</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -12681,10 +12682,10 @@
         <v>9</v>
       </c>
       <c r="B79" s="6" t="s">
+        <v>597</v>
+      </c>
+      <c r="C79" s="6" t="s">
         <v>598</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -12695,7 +12696,7 @@
         <v>104</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -12706,7 +12707,7 @@
         <v>64</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -12717,7 +12718,7 @@
         <v>57</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -12728,7 +12729,7 @@
         <v>60</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -12736,10 +12737,10 @@
         <v>63</v>
       </c>
       <c r="B84" s="6" t="s">
+        <v>603</v>
+      </c>
+      <c r="C84" s="6" t="s">
         <v>604</v>
-      </c>
-      <c r="C84" s="6" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -12750,7 +12751,7 @@
         <v>131</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -12758,10 +12759,10 @@
         <v>41</v>
       </c>
       <c r="B86" s="6" t="s">
+        <v>606</v>
+      </c>
+      <c r="C86" s="6" t="s">
         <v>607</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -12772,7 +12773,7 @@
         <v>122</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -12780,10 +12781,10 @@
         <v>36</v>
       </c>
       <c r="B88" s="6" t="s">
+        <v>609</v>
+      </c>
+      <c r="C88" s="6" t="s">
         <v>610</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -12794,7 +12795,7 @@
         <v>12</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -12805,7 +12806,7 @@
         <v>92</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -12816,7 +12817,7 @@
         <v>58</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -12827,7 +12828,7 @@
         <v>46</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -12838,7 +12839,7 @@
         <v>88</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -12860,7 +12861,7 @@
         <v>65</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -12871,7 +12872,7 @@
         <v>108</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -12882,7 +12883,7 @@
         <v>61</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -12890,10 +12891,10 @@
         <v>10</v>
       </c>
       <c r="B98" s="6" t="s">
+        <v>619</v>
+      </c>
+      <c r="C98" s="6" t="s">
         <v>620</v>
-      </c>
-      <c r="C98" s="6" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -12904,7 +12905,7 @@
         <v>103</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -12915,7 +12916,7 @@
         <v>128</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -12926,7 +12927,7 @@
         <v>115</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
   </sheetData>
@@ -12939,8 +12940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{779BEEFC-0607-4B48-A626-6AE397B38C06}">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -12953,25 +12954,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>660</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -12979,7 +12980,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>60</v>
@@ -13002,7 +13003,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>96</v>
@@ -13025,7 +13026,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>89</v>
@@ -13048,7 +13049,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>26</v>
@@ -13071,7 +13072,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>83</v>
@@ -13094,7 +13095,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>123</v>
@@ -13117,7 +13118,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>77</v>
@@ -13137,13 +13138,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>61</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>57</v>
@@ -13154,7 +13155,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>48</v>
@@ -13174,7 +13175,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>116</v>
@@ -13183,7 +13184,7 @@
         <v>69</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>14</v>
@@ -13197,7 +13198,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>22</v>
@@ -13212,7 +13213,7 @@
         <v>105</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -13220,7 +13221,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>543</v>
@@ -13240,7 +13241,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>77</v>
@@ -13263,7 +13264,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>31</v>
@@ -13275,7 +13276,7 @@
         <v>57</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>75</v>
@@ -13286,7 +13287,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>26</v>
@@ -13309,7 +13310,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>91</v>
@@ -13332,7 +13333,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>104</v>
@@ -13355,7 +13356,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>52</v>
@@ -13375,7 +13376,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>12</v>
@@ -13398,7 +13399,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>34</v>
@@ -13418,7 +13419,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>2</v>
@@ -13438,7 +13439,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>22</v>
@@ -13458,7 +13459,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>45</v>
@@ -13481,7 +13482,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>41</v>
@@ -13504,7 +13505,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>4</v>
@@ -13527,7 +13528,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>122</v>
@@ -13550,7 +13551,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>60</v>
@@ -13573,7 +13574,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>123</v>
@@ -13582,7 +13583,7 @@
         <v>103</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>58</v>
@@ -13596,7 +13597,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>91</v>
@@ -13619,7 +13620,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>69</v>
@@ -13642,7 +13643,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>13</v>
@@ -13665,7 +13666,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>2</v>
@@ -13688,7 +13689,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>67</v>
@@ -13711,7 +13712,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>17</v>
@@ -13734,7 +13735,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>123</v>
@@ -13757,7 +13758,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>13</v>
@@ -13780,7 +13781,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>77</v>
@@ -13803,13 +13804,13 @@
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>61</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>57</v>
@@ -13820,7 +13821,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>65</v>
@@ -13843,7 +13844,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>96</v>
@@ -13866,7 +13867,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>122</v>
@@ -13889,7 +13890,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>22</v>
@@ -13912,7 +13913,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>91</v>
@@ -13935,7 +13936,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>96</v>
@@ -13958,7 +13959,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>60</v>
@@ -13981,7 +13982,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>77</v>
@@ -14001,7 +14002,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>123</v>
@@ -14010,7 +14011,7 @@
         <v>103</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>58</v>
@@ -14024,7 +14025,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>122</v>
@@ -14047,7 +14048,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>2</v>
@@ -14067,7 +14068,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>83</v>
@@ -14090,7 +14091,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>91</v>
@@ -14110,7 +14111,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>12</v>
@@ -14133,7 +14134,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>26</v>
@@ -14156,7 +14157,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>123</v>
@@ -14165,7 +14166,7 @@
         <v>103</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>58</v>
@@ -14179,7 +14180,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>104</v>
@@ -14202,7 +14203,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>71</v>
@@ -14222,7 +14223,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>22</v>
@@ -14237,7 +14238,7 @@
         <v>105</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
@@ -14245,7 +14246,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>104</v>
@@ -14268,7 +14269,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>60</v>
@@ -14291,7 +14292,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>45</v>
@@ -14314,7 +14315,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>34</v>
@@ -14337,7 +14338,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>31</v>
@@ -14360,7 +14361,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>84</v>
@@ -14383,7 +14384,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>54</v>
@@ -14406,7 +14407,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>26</v>
@@ -14426,7 +14427,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>46</v>
@@ -14438,7 +14439,7 @@
         <v>130</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>97</v>
@@ -14449,7 +14450,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>22</v>
@@ -14472,7 +14473,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>104</v>
@@ -14495,7 +14496,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>96</v>
@@ -14515,7 +14516,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>543</v>
@@ -14538,7 +14539,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>81</v>
@@ -14550,7 +14551,7 @@
         <v>61</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>57</v>
@@ -14561,7 +14562,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>37</v>
@@ -14581,7 +14582,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>132</v>
@@ -14601,7 +14602,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>39</v>
@@ -14624,7 +14625,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>122</v>
@@ -14644,7 +14645,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>61</v>
@@ -14667,7 +14668,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>83</v>
@@ -14687,7 +14688,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>111</v>
@@ -14699,7 +14700,7 @@
         <v>45</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
@@ -14707,7 +14708,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>71</v>
@@ -14727,7 +14728,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>26</v>
@@ -14750,7 +14751,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>91</v>
@@ -14770,7 +14771,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>44</v>
@@ -14790,7 +14791,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>12</v>
@@ -14810,7 +14811,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>2</v>
@@ -14830,7 +14831,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>65</v>
@@ -14853,7 +14854,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>17</v>
@@ -14876,7 +14877,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>34</v>
@@ -14899,7 +14900,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>83</v>
@@ -14919,7 +14920,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>46</v>
@@ -14928,7 +14929,7 @@
         <v>101</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>58</v>
@@ -14942,7 +14943,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>104</v>
@@ -14965,7 +14966,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>52</v>
@@ -14985,7 +14986,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>83</v>
@@ -15008,7 +15009,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>46</v>
@@ -15031,7 +15032,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>122</v>
@@ -15054,7 +15055,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>2</v>
@@ -15077,7 +15078,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>44</v>
@@ -15100,7 +15101,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>45</v>
@@ -15123,7 +15124,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>30</v>
@@ -15146,7 +15147,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>60</v>
@@ -15169,7 +15170,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>37</v>
@@ -15197,8 +15198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7620DDBA-3AAB-4CCB-9386-CEB20CBCC974}">
   <dimension ref="A1:G201"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="H72" sqref="H72"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="H86" sqref="H86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -15210,25 +15211,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>660</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -15236,7 +15237,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>34</v>
@@ -15259,7 +15260,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>80</v>
@@ -15270,7 +15271,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>119</v>
@@ -15281,7 +15282,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>31</v>
@@ -15304,7 +15305,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>84</v>
@@ -15327,7 +15328,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>83</v>
@@ -15338,7 +15339,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>6</v>
@@ -15349,7 +15350,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>54</v>
@@ -15372,7 +15373,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>26</v>
@@ -15392,7 +15393,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>19</v>
@@ -15403,7 +15404,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>44</v>
@@ -15414,7 +15415,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>46</v>
@@ -15426,7 +15427,7 @@
         <v>130</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>97</v>
@@ -15437,7 +15438,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>22</v>
@@ -15460,7 +15461,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>89</v>
@@ -15471,7 +15472,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>124</v>
@@ -15482,7 +15483,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>104</v>
@@ -15505,7 +15506,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>96</v>
@@ -15525,7 +15526,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>22</v>
@@ -15536,7 +15537,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>17</v>
@@ -15547,7 +15548,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>543</v>
@@ -15570,7 +15571,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>81</v>
@@ -15582,7 +15583,7 @@
         <v>61</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>57</v>
@@ -15593,7 +15594,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>95</v>
@@ -15604,7 +15605,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>4</v>
@@ -15615,7 +15616,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>37</v>
@@ -15635,7 +15636,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>132</v>
@@ -15655,7 +15656,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>38</v>
@@ -15666,7 +15667,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>33</v>
@@ -15677,7 +15678,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>39</v>
@@ -15700,7 +15701,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>122</v>
@@ -15720,7 +15721,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>111</v>
@@ -15731,7 +15732,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>120</v>
@@ -15742,7 +15743,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>61</v>
@@ -15765,7 +15766,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>83</v>
@@ -15785,7 +15786,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>26</v>
@@ -15796,7 +15797,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>116</v>
@@ -15807,7 +15808,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>111</v>
@@ -15819,7 +15820,7 @@
         <v>45</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -15827,7 +15828,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>71</v>
@@ -15847,10 +15848,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -15858,7 +15859,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>110</v>
@@ -15869,7 +15870,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>26</v>
@@ -15892,7 +15893,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>91</v>
@@ -15912,7 +15913,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>101</v>
@@ -15923,7 +15924,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>39</v>
@@ -15934,7 +15935,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>44</v>
@@ -15954,7 +15955,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>89</v>
@@ -15977,7 +15978,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>49</v>
@@ -15988,7 +15989,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>105</v>
@@ -15999,7 +16000,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>2</v>
@@ -16019,7 +16020,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>65</v>
@@ -16042,7 +16043,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>9</v>
@@ -16053,7 +16054,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>91</v>
@@ -16064,7 +16065,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>17</v>
@@ -16087,7 +16088,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>34</v>
@@ -16110,7 +16111,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>60</v>
@@ -16121,7 +16122,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>92</v>
@@ -16132,7 +16133,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>83</v>
@@ -16152,7 +16153,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>46</v>
@@ -16161,7 +16162,7 @@
         <v>101</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>58</v>
@@ -16175,7 +16176,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>115</v>
@@ -16186,7 +16187,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>23</v>
@@ -16197,7 +16198,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>104</v>
@@ -16220,7 +16221,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>52</v>
@@ -16240,7 +16241,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>62</v>
@@ -16251,7 +16252,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>114</v>
@@ -16262,7 +16263,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>83</v>
@@ -16285,7 +16286,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>46</v>
@@ -16308,7 +16309,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>42</v>
@@ -16319,7 +16320,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>107</v>
@@ -16330,7 +16331,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>122</v>
@@ -16353,7 +16354,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>2</v>
@@ -16376,7 +16377,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>130</v>
@@ -16387,7 +16388,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>52</v>
@@ -16398,7 +16399,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>44</v>
@@ -16421,7 +16422,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>45</v>
@@ -16444,7 +16445,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>77</v>
@@ -16455,7 +16456,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>73</v>
@@ -16466,7 +16467,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>30</v>
@@ -16489,7 +16490,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>60</v>
@@ -16512,7 +16513,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>99</v>
@@ -16523,7 +16524,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>131</v>
@@ -16534,7 +16535,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>37</v>
@@ -16557,7 +16558,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>60</v>
@@ -16580,7 +16581,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>75</v>
@@ -16591,7 +16592,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>8</v>
@@ -16602,7 +16603,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>96</v>
@@ -16625,7 +16626,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>89</v>
@@ -16648,7 +16649,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>79</v>
@@ -16659,7 +16660,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>543</v>
@@ -16670,7 +16671,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>26</v>
@@ -16693,7 +16694,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>83</v>
@@ -16716,7 +16717,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>68</v>
@@ -16727,7 +16728,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>71</v>
@@ -16738,7 +16739,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>123</v>
@@ -16761,7 +16762,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>77</v>
@@ -16781,7 +16782,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>529</v>
@@ -16792,7 +16793,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>35</v>
@@ -16803,13 +16804,13 @@
         <v>95</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>61</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>57</v>
@@ -16820,7 +16821,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>48</v>
@@ -16840,7 +16841,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>118</v>
@@ -16851,7 +16852,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>27</v>
@@ -16862,7 +16863,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>116</v>
@@ -16871,7 +16872,7 @@
         <v>69</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>14</v>
@@ -16885,7 +16886,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>22</v>
@@ -16900,7 +16901,7 @@
         <v>105</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
@@ -16908,7 +16909,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>64</v>
@@ -16919,7 +16920,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>31</v>
@@ -16930,7 +16931,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>543</v>
@@ -16950,7 +16951,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>77</v>
@@ -16973,7 +16974,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>96</v>
@@ -16984,7 +16985,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>65</v>
@@ -16995,7 +16996,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>31</v>
@@ -17007,7 +17008,7 @@
         <v>57</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G109" s="1" t="s">
         <v>75</v>
@@ -17018,7 +17019,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>26</v>
@@ -17041,7 +17042,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>81</v>
@@ -17052,7 +17053,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>108</v>
@@ -17063,7 +17064,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>91</v>
@@ -17086,7 +17087,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>104</v>
@@ -17109,7 +17110,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>29</v>
@@ -17120,7 +17121,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>88</v>
@@ -17131,7 +17132,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>52</v>
@@ -17151,7 +17152,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>12</v>
@@ -17174,7 +17175,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>58</v>
@@ -17185,7 +17186,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>1</v>
@@ -17196,7 +17197,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>34</v>
@@ -17216,7 +17217,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>2</v>
@@ -17236,7 +17237,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>56</v>
@@ -17247,7 +17248,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>69</v>
@@ -17258,7 +17259,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>22</v>
@@ -17278,7 +17279,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>45</v>
@@ -17301,7 +17302,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>53</v>
@@ -17312,7 +17313,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>13</v>
@@ -17323,7 +17324,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>41</v>
@@ -17346,7 +17347,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>4</v>
@@ -17369,7 +17370,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>112</v>
@@ -17380,7 +17381,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>45</v>
@@ -17391,7 +17392,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>122</v>
@@ -17414,7 +17415,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>60</v>
@@ -17437,7 +17438,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>76</v>
@@ -17448,7 +17449,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>93</v>
@@ -17459,7 +17460,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>123</v>
@@ -17468,7 +17469,7 @@
         <v>103</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>58</v>
@@ -17482,7 +17483,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>91</v>
@@ -17505,7 +17506,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>25</v>
@@ -17516,7 +17517,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>104</v>
@@ -17527,7 +17528,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>69</v>
@@ -17550,7 +17551,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>13</v>
@@ -17573,7 +17574,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>12</v>
@@ -17584,7 +17585,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>34</v>
@@ -17595,7 +17596,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>2</v>
@@ -17618,7 +17619,7 @@
         <v>144</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>67</v>
@@ -17641,7 +17642,7 @@
         <v>145</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>134</v>
@@ -17652,7 +17653,7 @@
         <v>146</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>85</v>
@@ -17663,7 +17664,7 @@
         <v>147</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>17</v>
@@ -17686,7 +17687,7 @@
         <v>148</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>123</v>
@@ -17709,7 +17710,7 @@
         <v>149</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>50</v>
@@ -17720,7 +17721,7 @@
         <v>150</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>97</v>
@@ -17731,7 +17732,7 @@
         <v>151</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>13</v>
@@ -17754,7 +17755,7 @@
         <v>152</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>77</v>
@@ -17777,7 +17778,7 @@
         <v>153</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>87</v>
@@ -17788,7 +17789,7 @@
         <v>154</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>30</v>
@@ -17799,7 +17800,7 @@
         <v>155</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>543</v>
@@ -17819,7 +17820,7 @@
         <v>156</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>77</v>
@@ -17842,7 +17843,7 @@
         <v>157</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>41</v>
@@ -17853,7 +17854,7 @@
         <v>158</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>18</v>
@@ -17864,7 +17865,7 @@
         <v>159</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>60</v>
@@ -17887,7 +17888,7 @@
         <v>160</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>26</v>
@@ -17910,7 +17911,7 @@
         <v>161</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>72</v>
@@ -17921,7 +17922,7 @@
         <v>162</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>100</v>
@@ -17932,7 +17933,7 @@
         <v>163</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>83</v>
@@ -17952,7 +17953,7 @@
         <v>164</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>122</v>
@@ -17972,7 +17973,7 @@
         <v>165</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>14</v>
@@ -17983,7 +17984,7 @@
         <v>166</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>128</v>
@@ -17994,7 +17995,7 @@
         <v>167</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>30</v>
@@ -18017,7 +18018,7 @@
         <v>168</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>54</v>
@@ -18040,7 +18041,7 @@
         <v>169</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>46</v>
@@ -18051,7 +18052,7 @@
         <v>170</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>37</v>
@@ -18062,7 +18063,7 @@
         <v>171</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>91</v>
@@ -18082,7 +18083,7 @@
         <v>172</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>4</v>
@@ -18105,7 +18106,7 @@
         <v>173</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>126</v>
@@ -18116,7 +18117,7 @@
         <v>174</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>67</v>
@@ -18127,7 +18128,7 @@
         <v>175</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>116</v>
@@ -18136,7 +18137,7 @@
         <v>69</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F177" s="1" t="s">
         <v>14</v>
@@ -18150,7 +18151,7 @@
         <v>176</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>83</v>
@@ -18173,7 +18174,7 @@
         <v>177</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>84</v>
@@ -18184,7 +18185,7 @@
         <v>178</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>54</v>
@@ -18195,7 +18196,7 @@
         <v>179</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>65</v>
@@ -18218,7 +18219,7 @@
         <v>180</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>71</v>
@@ -18238,7 +18239,7 @@
         <v>181</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>2</v>
@@ -18249,7 +18250,7 @@
         <v>182</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>123</v>
@@ -18260,7 +18261,7 @@
         <v>183</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>26</v>
@@ -18283,7 +18284,7 @@
         <v>184</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>31</v>
@@ -18295,7 +18296,7 @@
         <v>57</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G186" s="1" t="s">
         <v>75</v>
@@ -18306,7 +18307,7 @@
         <v>185</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>127</v>
@@ -18317,7 +18318,7 @@
         <v>186</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>57</v>
@@ -18328,7 +18329,7 @@
         <v>187</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>69</v>
@@ -18351,7 +18352,7 @@
         <v>188</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>45</v>
@@ -18374,7 +18375,7 @@
         <v>189</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>122</v>
@@ -18385,7 +18386,7 @@
         <v>190</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>103</v>
@@ -18396,7 +18397,7 @@
         <v>191</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>89</v>
@@ -18419,7 +18420,7 @@
         <v>192</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>45</v>
@@ -18442,7 +18443,7 @@
         <v>193</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>132</v>
@@ -18453,7 +18454,7 @@
         <v>194</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>61</v>
@@ -18464,7 +18465,7 @@
         <v>195</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>104</v>
@@ -18487,7 +18488,7 @@
         <v>196</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>26</v>
@@ -18510,7 +18511,7 @@
         <v>197</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>48</v>
@@ -18521,10 +18522,10 @@
         <v>198</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.3">
@@ -18532,7 +18533,7 @@
         <v>199</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>91</v>
